--- a/output/diluent.xlsx
+++ b/output/diluent.xlsx
@@ -234,7 +234,7 @@
     <t>valueReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org.au/fhir/StructureDefinition/au-medication)
+    <t xml:space="preserve">Reference(http://fhir.health.nsw.gov.au/fhir/ehealth/itoc/v1.0/StructureDefinition/nswhealthitocmedication)
 </t>
   </si>
   <si>

--- a/output/diluent.xlsx
+++ b/output/diluent.xlsx
@@ -234,7 +234,7 @@
     <t>valueReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.health.nsw.gov.au/fhir/ehealth/itoc/v1.0/StructureDefinition/nswhealthitocmedication)
+    <t xml:space="preserve">Reference(http://fhir.health.nsw.gov.au/fhir/ehealth/itoc/v1.0/StructureDefinition/nswhealthitocmedicationstatement)
 </t>
   </si>
   <si>
